--- a/src/main/resources/root/en/getconfig.xlsx
+++ b/src/main/resources/root/en/getconfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" state="visible" r:id="rId2"/>
@@ -694,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -703,7 +703,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2200,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2215,8 +2215,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2625,19 +2625,15 @@
       <c r="I24" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4" type="list">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B24" type="list">
-      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B24" type="list">
+      <formula1>"Linux,Windows,Solaris,VMWare,VMHost,HPiLO,CiscoUCS,Primergy,XSCF,HitachiVSP,NetAPP,Eternus,Oracle,Zabbix,{Agent},{LocalFile}"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -3298,7 +3294,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
